--- a/BOE-oposiciones.xlsx
+++ b/BOE-oposiciones.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A240"/>
+  <dimension ref="A1:A641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,1673 +444,4480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9418_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9419_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9420_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9421_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9422_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9423_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9424_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9425_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9426_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9427_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9428_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9429_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9430_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9431_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9432_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9433_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9434_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9435_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9436_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9437_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9438_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9439_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_arquitec</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_arquitec</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_arquitec</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_arquitec</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_arquitec</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_arquitec</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_arquitec</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_arquitec</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_arquitec</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_arquitec</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_arquitec</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_arquitec</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_arquitec</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_arquitec</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_arquitec</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_arquitec</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_arquitec</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_arquitec</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_arquitec</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_arquitec</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_arquitec</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_arquitec</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_arquitec</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_arquitec</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_arquitec</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_arquitec</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_arquitec</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_arquitec</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_arquitec</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_arquitec</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_arquitec</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_arquitec</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_arquitec</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_arquitec</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_arquitec</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_arquitec</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_arquitec</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_arquitec</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_arquitec</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_arquitec</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_arquitec</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_arquitec</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_arquitec</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_arquitec</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_arquitec</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_arquitec</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_arquitec</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_arquitec</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_arquitec</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_arquitec</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_arquitec</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_arquitec</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_arquitec</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_arquitec</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_arquitec</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_arquitec</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_arquitec</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_arquitec</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_arquitec</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_arquitec</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_arquitec</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_arquitec</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_arquitec</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_arquitec</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_arquitec</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_arquitec</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_arquitec</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_arquitec</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_arquitec</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_arquitec</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_arquitec</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_arquitec</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_arquitec</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_arquitec</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_arquitec</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_arquitec</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_arquitec</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_arquitec</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_arquitec</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_arquitec</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_arquitec</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_arquitec</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_arquitec</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_arquitec</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_arquitec</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_arquitec</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_arquitec</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_arquitec</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_arquitec</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_arquitec</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_arquitec</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_arquitec</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_arquitec</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_arquitec</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_arquitec</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_arquitec</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_arquitec</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_arquitec</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_arquitec</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_arquitec</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_arquitec</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_arquitec</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_arquitec</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_arquitec</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_arquitec</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_arquitec</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_arquitec</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_arquitec</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_arquitec</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_arquitec</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_arquitec</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_arquitec</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_arquitec</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_arquitec</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_arquitec</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_arquitec</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_arquitec</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_arquitec</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_arquitec</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_arquitec</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_arquitec</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_arquitec</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_arquitec</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_arquitec</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_arquitec</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_arquitec</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_arquitec</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_arquitec</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_arquitec</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_arquitec</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_arquitec</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_arquitec</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_arquitec</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_arquitec</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_arquitec</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_arquitec</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_arquitec</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_arquitec</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_arquitec</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_arquitec</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_arquitec</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_arquitec</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_arquitec</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_arquitec</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_arquitec</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_arquitec</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_arquitec</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_arquitec</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_arquitec</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_arquitec</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_arquitec</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_arquitec</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_arquitec</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_arquitec</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_arquitec</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_arquitec</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_arquitec</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_arquitec</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_arquitec</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_arquitec</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_arquitec</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_arquitec</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_arquitec</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_arquitec</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_arquitec</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_arquitec</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_arquitec</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_arquitec</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_arquitec</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_arquitec</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_arquitec</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_arquitec</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_arquitec</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_arquitec</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_arquitec</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_arquitec</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_arquitec</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_arquitec</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_arquitec</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_arquitec</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_arquitec</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_arquitec</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_arquitec</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_arquitec</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_arquitec</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_arquitec</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_arquitec</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_arquitec</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_arquitec</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_arquitec</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_arquitec</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_arquitec</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_arquitec</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_arquitec</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_arquitec</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_arquitec</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_arquitec</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_arquitec</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_arquitec</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_arquitec</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_arquitec</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_arquitec</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_arquitec</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_arquitec</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_arquitec</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_arquitec</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_arquitec</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_arquitec</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_arquitec</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_arquitec</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_arquitec</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_arquitec</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_arquitec</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_arquitec</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_arquitec</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_arquitec</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9235_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9294_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9295_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9296_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9297_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9298_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9299_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9300_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9301_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9302_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9303_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9304_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9305_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9306_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9307_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9308_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9309_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9310_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9311_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9312_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9313_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9314_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9315_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9316_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9317_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9318_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9319_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9320_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9321_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9322_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9323_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9324_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9325_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9327_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9328_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9329_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9330_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9332_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9333_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9334_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9336_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9337_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9338_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9339_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9340_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9341_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9342_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9344_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9345_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9346_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9347_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9348_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9349_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9350_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9351_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9352_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9353_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9354_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9355_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9356_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9357_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9358_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9359_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9360_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9361_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9362_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9363_arquitec</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
           <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9235_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9294_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9295_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9296_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9297_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9298_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9299_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9300_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9301_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9302_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9303_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9304_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9305_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9306_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9307_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9308_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9309_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9310_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9311_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9312_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9313_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9314_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9315_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9316_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9317_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9318_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9319_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9320_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9321_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9322_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9323_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9324_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9325_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9327_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9328_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9329_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9330_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9332_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9333_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9334_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9336_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9337_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9338_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9339_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9340_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9341_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9342_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9344_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9345_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9346_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9347_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9348_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9349_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9350_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9351_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9352_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9353_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9354_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9355_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9356_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9357_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9358_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9359_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9360_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9361_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9362_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9363_ing+téc+ind</t>
         </is>
       </c>
     </row>
@@ -2125,7 +4932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,7 +5043,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Boletín Oficial de la Provincia de Alicante» número 73, de 16 de abril de 2025</t>
+          <t>«Boletín Oficial de la Provincia de Alicante» número 73, de 16 de abril de 2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2291,7 +5098,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Boletín Oficial de la Provincia de Ciudad Real» número 73, de 15 de abril de 2025</t>
+          <t>«Boletín Oficial de la Provincia de Ciudad Real» número 73, de 15 de abril de 2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2346,12 +5153,672 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Boletín Oficial de la Provincia de Salamanca» número 74, de 16 de abril de 2025</t>
+          <t>«Boletín Oficial de la Provincia de Salamanca» número 74, de 16 de abril de 2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arquitecto/a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Alcobendas (Madrid)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Comunidad de Madrid» número 86, de 11 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>personal arquitecto técnico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Puigcerdà (Girona)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>«Diari Oficial de la Generalitat de Catalunya» número 9344, de 23 de enero de 2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Consell Comarcal de l'Alt Empordà (Girona)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Girona» número 77, de 23 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arquitecto/a</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de L'Hospitalet de Llobregat (Barcelona)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Barcelona», de 16 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Chinchón (Madrid)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Comunidad de Madrid» número 96, de 23 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arquitecto/a</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Viñuela (Málaga)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Málaga» número 73, de 16 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Técnico/a Superior Administración Especial arquitecto/a general</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Vila-real (Castellón/Castelló)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Concurso</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Castellón» número 53, de 3 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oficial Parques-Jardines</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Vila-real (Castellón/Castelló)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Concurso</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>12 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Castellón» número 53, de 3 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arquitecto/a</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Burgos</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Burgos» número 79, de 28 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arquitecto Técnico o Arquitecta Técnica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Burjassot (Valencia/València)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Valencia» número 77, de 24 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arquitecto/a Técnico/a</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Diputación Provincial de Jaén</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>13 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaen» número 20, de 30 de enero de 2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Arquitecto/a Técnico/a</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Gelves (Sevilla)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>13 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Sevilla» número 15, de 23 de enero de 2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343</t>
         </is>
       </c>
     </row>

--- a/BOE-oposiciones.xlsx
+++ b/BOE-oposiciones.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A641"/>
+  <dimension ref="A1:A809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,4478 +444,5654 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9418_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9505</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9419_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9506</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9420_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9507</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9421_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9508</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9422_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9509</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9423_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9510</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9424_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9511</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9425_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9512</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9426_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9513</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9427_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9514</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9428_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9515</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9429_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9516</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9430_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9517</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9431_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9518</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9432_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9519</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9433_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9520</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9434_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9521</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9435_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9522</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9436_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9523</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9437_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9524</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9438_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9525</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9439_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9526</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9527</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9528</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9529</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9530</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9531</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9532</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9533</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9534</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9535</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9536</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9537</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9538</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9539</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9540</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9541</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9542</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9543</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9544</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9545</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9546</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9547</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9548</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9549</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9550</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9551</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9552</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9553</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9554</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9555</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9556</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9557</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9558</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9559</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9560</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9561</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9562</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9563</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9564</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9565</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9566</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9567</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9568</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9569</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9570</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9571</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9572</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9573</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9574</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9575</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9576</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9577</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9578</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9579</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9580</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9581</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9582</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9583</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9584</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9585</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9586</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9587</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9588</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9505_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9506_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9507_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9508_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9509_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9510_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9511_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9512_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9513_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9514_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9515_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9516_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9517_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9518_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9519_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9520_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9521_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9522_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9523_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9524_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9525_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9526_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9527_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9528_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9529_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9530_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9531_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9532_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9533_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9534_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9535_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9536_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9537_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9538_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9539_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9540_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9541_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9542_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9543_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9544_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9545_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9546_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9547_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9548_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9549_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9550_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9551_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9552_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9553_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9554_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9555_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9556_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9557_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9558_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9559_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9560_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9561_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9562_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9563_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9564_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9565_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9566_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9567_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9568_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9569_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9570_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9571_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9572_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9573_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9574_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9575_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9576_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9577_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9578_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9579_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9580_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9581_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9582_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9583_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9584_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9585_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9586_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9587_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9588_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9418_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9419_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9420_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9421_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9422_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9423_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9424_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9425_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9426_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9427_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9428_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9429_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9430_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9431_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9432_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9433_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9434_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9435_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9436_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9437_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9438_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9439_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_arquitec</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_arquitec</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_arquitec</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_arquitec</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_arquitec</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_arquitec</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_arquitec</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_arquitec</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_arquitec</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_arquitec</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_arquitec</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_arquitec</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_arquitec</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_arquitec</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_arquitec</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_arquitec</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_arquitec</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_arquitec</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_arquitec</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_arquitec</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_arquitec</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_arquitec</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_arquitec</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_arquitec</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_arquitec</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_arquitec</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_arquitec</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_arquitec</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_arquitec</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_arquitec</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_arquitec</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_arquitec</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_arquitec</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_arquitec</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_arquitec</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_arquitec</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_arquitec</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_arquitec</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_arquitec</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_arquitec</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_arquitec</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_arquitec</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_arquitec</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_arquitec</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_arquitec</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_arquitec</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_arquitec</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_arquitec</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_arquitec</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_arquitec</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_arquitec</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_arquitec</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_arquitec</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_arquitec</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_arquitec</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_arquitec</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_arquitec</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_arquitec</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_arquitec</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_arquitec</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_arquitec</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_arquitec</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_arquitec</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_arquitec</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_arquitec</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_arquitec</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_arquitec</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_arquitec</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_arquitec</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_arquitec</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9235_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_arquitec</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9294_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_arquitec</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9295_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_arquitec</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9296_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_arquitec</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9297_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_arquitec</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9298_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_arquitec</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9299_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_arquitec</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9300_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_arquitec</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9301_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_arquitec</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9302_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_arquitec</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9303_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_arquitec</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9304_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_arquitec</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9305_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_arquitec</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9306_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_arquitec</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9307_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_arquitec</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9308_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_arquitec</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9309_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_arquitec</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9310_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_arquitec</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9311_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_arquitec</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9312_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_arquitec</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9313_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_arquitec</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9314_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_arquitec</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9315_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_arquitec</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9316_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_arquitec</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9317_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_arquitec</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9318_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_arquitec</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9319_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_arquitec</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9320_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_arquitec</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9321_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_arquitec</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9322_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_arquitec</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9323_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_arquitec</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9324_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_arquitec</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9325_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_arquitec</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_arquitec</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9327_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_arquitec</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9328_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_arquitec</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9329_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_arquitec</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9330_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_arquitec</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_arquitec</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9332_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_arquitec</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9333_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_arquitec</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9334_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_arquitec</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_arquitec</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9336_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_arquitec</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9337_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_arquitec</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9338_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_arquitec</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9339_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_arquitec</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9340_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_arquitec</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9341_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_arquitec</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9342_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_arquitec</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_arquitec</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9344_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_arquitec</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9345_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_arquitec</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9346_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_arquitec</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9347_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_arquitec</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9348_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_arquitec</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9349_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_arquitec</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9350_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_arquitec</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9351_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_arquitec</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9352_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_arquitec</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9353_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_arquitec</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9354_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_arquitec</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9355_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_arquitec</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9356_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_arquitec</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9357_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_arquitec</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9358_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_arquitec</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9359_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_arquitec</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9360_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_arquitec</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9361_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_arquitec</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9362_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_arquitec</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9363_arquitec</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_arquitec</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_arquitec</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_arquitec</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_arquitec</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_arquitec</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_arquitec</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_arquitec</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_arquitec</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_arquitec</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_arquitec</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_arquitec</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_arquitec</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_arquitec</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_arquitec</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_arquitec</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_arquitec</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_arquitec</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_arquitec</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_arquitec</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_arquitec</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_arquitec</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_arquitec</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_arquitec</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_arquitec</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_arquitec</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_arquitec</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_arquitec</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_arquitec</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_arquitec</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_arquitec</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_arquitec</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_arquitec</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_arquitec</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_arquitec</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_arquitec</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_arquitec</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_arquitec</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_arquitec</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_arquitec</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_arquitec</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_arquitec</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_arquitec</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_arquitec</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_arquitec</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_arquitec</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_arquitec</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_arquitec</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_arquitec</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_arquitec</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_arquitec</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_arquitec</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_arquitec</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_arquitec</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_arquitec</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_arquitec</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_arquitec</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_arquitec</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_arquitec</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_arquitec</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_arquitec</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_arquitec</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_arquitec</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_arquitec</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_arquitec</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_arquitec</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_arquitec</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_arquitec</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_arquitec</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_arquitec</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_arquitec</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_arquitec</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_arquitec</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_arquitec</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_arquitec</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_arquitec</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_arquitec</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_arquitec</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_arquitec</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_arquitec</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_arquitec</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_arquitec</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_arquitec</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_arquitec</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_arquitec</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_arquitec</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_arquitec</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_arquitec</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_arquitec</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_arquitec</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_arquitec</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_arquitec</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_arquitec</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_arquitec</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_arquitec</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_arquitec</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_arquitec</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_arquitec</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_arquitec</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9235_arquitec</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9294_arquitec</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9295_arquitec</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9296_arquitec</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9297_arquitec</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9298_arquitec</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9299_arquitec</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9300_arquitec</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9301_arquitec</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9302_arquitec</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9303_arquitec</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9304_arquitec</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9305_arquitec</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9306_arquitec</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9307_arquitec</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9308_arquitec</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9309_arquitec</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9310_arquitec</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9311_arquitec</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9312_arquitec</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9313_arquitec</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9314_arquitec</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9315_arquitec</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9316_arquitec</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9317_arquitec</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9318_arquitec</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9319_arquitec</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9320_arquitec</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9321_arquitec</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9322_arquitec</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9323_arquitec</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9324_arquitec</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9325_arquitec</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326_arquitec</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9327_arquitec</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9328_arquitec</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9329_arquitec</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9330_arquitec</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331_arquitec</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9332_arquitec</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9333_arquitec</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9334_arquitec</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335_arquitec</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9336_arquitec</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9337_arquitec</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9338_arquitec</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9339_arquitec</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9340_arquitec</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9341_arquitec</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9342_arquitec</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343_arquitec</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9344_arquitec</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9345_arquitec</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9346_arquitec</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9347_arquitec</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9348_arquitec</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9349_arquitec</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9350_arquitec</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9351_arquitec</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9352_arquitec</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9353_arquitec</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9354_arquitec</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9355_arquitec</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9356_arquitec</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9357_arquitec</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9358_arquitec</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9359_arquitec</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9360_arquitec</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9361_arquitec</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9362_arquitec</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9363_arquitec</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8666_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8667_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8668_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8669_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8670_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8671_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8672_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8673_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8674_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8675_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8676_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8677_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8678_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8679_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8680_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8681_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8682_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8683_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8684_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8685_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8686_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8687_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8688_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8689_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8690_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8691_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8692_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8693_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8694_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8695_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8696_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8697_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8698_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8699_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8700_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8701_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8702_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8703_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8704_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8705_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8706_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8707_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8708_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8741_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8742_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8743_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8744_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8745_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8746_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8747_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8748_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8749_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8750_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8751_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8752_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8753_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8754_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8755_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8756_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8757_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8758_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8759_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8760_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8761_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8762_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8763_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8764_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8765_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8766_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8767_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9235_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8768_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9294_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8769_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9295_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8770_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9296_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8771_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9297_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8772_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9298_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8773_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9299_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8774_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9300_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8798_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9301_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8799_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9302_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8800_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9303_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8801_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9304_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8802_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9305_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8803_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9306_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8804_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9307_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8805_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9308_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8806_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9309_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8807_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9310_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8808_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9311_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8809_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9312_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8810_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9313_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8811_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9314_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8812_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9315_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8813_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9316_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8814_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9317_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8815_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9318_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8816_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9319_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8817_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9320_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8818_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9321_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8819_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9322_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8851_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9323_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8852_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9324_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8853_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9325_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8854_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8855_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9327_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8856_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9328_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8857_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9329_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8858_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9330_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8859_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8860_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9332_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8861_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9333_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8862_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9334_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8863_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8864_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9336_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8865_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9337_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8866_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9338_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8867_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9339_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8868_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9340_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8869_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9341_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8870_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9342_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8871_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8872_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9344_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8873_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9345_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8874_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9346_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8875_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9347_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8876_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9348_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8877_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9349_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8878_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9350_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8879_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9351_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8917_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9352_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8918_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9353_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8919_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9354_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8920_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9355_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8921_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9356_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8922_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9357_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8923_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9358_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8924_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9359_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8925_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9360_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8926_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9361_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8927_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9362_ing+téc+ind</t>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8928_ing+téc+ind</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8929_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8930_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8931_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8932_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8933_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8934_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8935_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8936_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8937_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8938_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8939_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8940_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8941_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8942_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8943_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8944_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8945_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8946_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-8947_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9005_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9006_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9007_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9008_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9009_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9010_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9011_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9012_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9013_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9014_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9015_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9016_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9017_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9018_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9019_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9020_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9021_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9022_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9023_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9024_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9025_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9026_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9027_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9068_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9069_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9070_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9071_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9072_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9073_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9074_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9075_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9076_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9077_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9078_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9079_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9080_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9081_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9082_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9083_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9084_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9085_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9111_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9112_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9113_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9114_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9115_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9116_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9117_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9118_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9119_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9157_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9158_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9159_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9160_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9161_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9162_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9163_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9213_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9214_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9215_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9216_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9217_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9218_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9219_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9220_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9221_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9222_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9223_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9224_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9225_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9226_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9227_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9228_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9229_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9230_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9231_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9232_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9233_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9234_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9235_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9294_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9295_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9296_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9297_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9298_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9299_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9300_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9301_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9302_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9303_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9304_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9305_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9306_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9307_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9308_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9309_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9310_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9311_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9312_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9313_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9314_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9315_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9316_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9317_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9318_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9319_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9320_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9321_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9322_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9323_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9324_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9325_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9326_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9327_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9328_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9329_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9330_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9331_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9332_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9333_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9334_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9335_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9336_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9337_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9338_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9339_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9340_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9341_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9342_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9343_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9344_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9345_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9346_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9347_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9348_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9349_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9350_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9351_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9352_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9353_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9354_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9355_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9356_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9357_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9358_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9359_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9360_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9361_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9362_ing+téc+ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
         <is>
           <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9363_ing+téc+ind</t>
         </is>
@@ -4932,7 +6108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5822,6 +6998,2591 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Técnico/a Administración General</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Valverde de la Vera (Cáceres)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Cáceres» número 58, de 25 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9525</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Administrativa/o</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Alborache (Valencia/València)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Valencia» número 48, de 11 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9526</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Técnico/a en relaciones laborales</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Ingenio (Las Palmas)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Las Palmas» número 49, de 23 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9529</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Agentes de Policía Local</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Campanario (Badajoz)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Badajoz» número 79, de 28 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9530</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oficial Cuerpo de Policía Local</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Villanueva de la Cañada (Madrid)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Comunidad de Madrid» número 101, de 29 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9531</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Técnico/a de Servicios Especiales de Administración Especial</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Donostia/San Sebastián (Gipuzkoa)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de Gipuzkoa» número 70, de 11 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9532</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Trabajador Social</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de El Campello (Alicante/Alacant)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Alicante» número 71, de 14 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9536</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Personal Auxiliar Administrativo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Cuenca</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Cuenca» número 50, de 2 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9537</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Personal Administrativo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Cuenca</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Cuenca» número 50, de 2 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9537</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Coordinador/a de Jardines</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Cuenca</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Cuenca» número 50, de 2 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9537</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>personal técnico de administración general</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Tocina (Sevilla)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Sevilla» número 79, de 28 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9538</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Agente de Policía Local</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Albuixech (Valencia/València)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Concurso</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>De Movilidad</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Valencia» número 69, de 10 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9541</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Administrativo/a de Intervención de Tesorería</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Villatorres (Jaén)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaén» número 58, de 26 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9542</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conserje de instalaciones deportivas</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Roses (Girona)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Subalterna</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Girona» número 84, de 5 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9543</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bombera/o</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Consorcio Comarcal para la Prestación del Servicio de Prevención y Extinción de Incendios y Salvamento de Sierra Mágina Oriental (Jaén)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Servicio de extinción de incendios</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaen» número 44, de 6 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9544</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Auxiliar administrativo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Almáchar (Málaga)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Málaga» número 55, de 21 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9545</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ordenanza-Conserje</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Almuñécar (Granada)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Subalterna</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Granada» número 66, de 8 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9546</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Personal auxiliar administrativo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gerencia Municipal de Urbanismo del Ayuntamiento de Cuenca</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Cuenca» número 50, de 2 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9547</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Técnico/a de Administración General</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Urnieta (Gipuzkoa)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de Gipuzkoa» número 50, de 14 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9551</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Técnico Administración General</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Azuqueca de Henares (Guadalajara)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Guadalajara» número 75, de 21 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9552</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Sondika (Bizkaia)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de Bizkaia» número 3, de 7 de enero de 2025</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9553</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Técnico Medio de Gestión</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Jaén</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gestión</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaén» número 55, de 21 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9554</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Topógrafo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Jaén</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaén» número 248, de 26 de diciembre de 2024</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9555</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Capataz de Jardines</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Jaén</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Servicios Especiales</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Personal de Oficios</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaén» número 248, de 26 de diciembre de 2024</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9555</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Técnico Medio de Informática</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Jaén</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Jaén» número 2, de 3 de enero de 2025</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9556</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>24</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Bombero</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Diputación Provincial de Huesca</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Servicio de extinción de incendios</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Huesca» número 70, de 11 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9557</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Oficial</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Diputación Provincial de Huesca</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Servicio de extinción de incendios</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Huesca» número 70, de 11 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9557</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Técnico/a de gestión</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de El Espinar (Segovia)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Gestión</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Segovia» número 40, de 2 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9558</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Administrativo/a</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de El Espinar (Segovia)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Segovia» número 40, de 2 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9558</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Subinspector/a de Policía Local</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Moguer (Huelva)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Huelva» número 41, de 3 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9559</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Oficial de Policía</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Montilla (Córdoba)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Concurso</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Córdoba» número 61, de 28 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9560</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Subinspector de la Policia Local</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Adra (Almería)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Almería» número 61, de 31 de marzo de 2025</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9562</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Oficial de la Policía Local</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Adra (Almería)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Policía Local y sus auxiliares</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Almería» número 62, de 1 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9563</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Técnico Administración General</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Santa Brígida (Las Palmas)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Las Palmas» número 43, de 9 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9565</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Oficial/a de la Policía Local</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Buñol (Valencia/València)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Servicios Especiales</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Policía Local y sus Auxiliares</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Valencia» número 69, de 10 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9566</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Maestro o Maestra de Educación Infantil</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Diputación Provincial de Alicante/Alacant</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Alicante» número 244, de 20 de diciembre de 2024</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9567</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Auxiliar Administrativo/va de Atención a la Ciudadanía</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de El Genovés (Valencia/València)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Valencia» número 73, de 16 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9569</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Psicólogo/a-Pedagogo/a</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Benissa (Alicante/Alacant)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Alicante» número 84, de 6 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9570</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conserje</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Errenteria (Gipuzkoa)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Cometidos especiales</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de Gipuzkoa» número 83, de 6 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9572</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Técnico/a de Gestión de Administración General</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Camarenilla (Toledo)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Superior</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Concurso</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Toledo» número 83, de 6 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9573</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Oficial de Policía Local</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Calatayud (Zaragoza)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>De Promoción Interna</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Zaragoza» número 100, de 6 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9574</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Delineante</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Cangas (Pontevedra)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Técnica</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Pontevedra» número 77, de 24 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9575</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Oficial Conductor</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Jaca (Huesca)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Servicios Especiales</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Personal de Oficios</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Huesca» número 71, de 14 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9576</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Oficial de Electricidad</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Jaca (Huesca)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Huesca» número 75, de 22 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9577</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sepulturero/a</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Palma del Río (Córdoba)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Administración Especial</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Servicios especiales</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Personal de oficios</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Córdoba» número 191, de 3 de octubre de 2024</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9578</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Administrativo/a</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de La Fuliola (Lleida)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No disponible</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Concurso-Oposición</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de Lleida» número 74, de 16 de abril de 2025</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9579</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Auxiliar administrativo</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ayuntamiento de Culleredo (A Coruña)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Administración General</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auxiliar</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Oposición</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>15 de mayo de 2025</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>«Boletín Oficial de la Provincia de A Coruña» número 237, de 10 de diciembre de 2024</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>https://www.boe.es/diario_boe/txt.php?id=BOE-A-2025-9580</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
